--- a/conf/translationfiles/translation_Commom.xlsx
+++ b/conf/translationfiles/translation_Commom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="328">
   <si>
     <t>No</t>
   </si>
@@ -1004,6 +1004,15 @@
   </si>
   <si>
     <t>信息</t>
+  </si>
+  <si>
+    <t>G_Text_Reset</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>重置</t>
   </si>
 </sst>
 </file>
@@ -1934,10 +1943,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3472,6 +3481,20 @@
       </c>
       <c r="D109" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
+        <v>326</v>
+      </c>
+      <c r="D110" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
